--- a/artfynd/A 41266-2021.xlsx
+++ b/artfynd/A 41266-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY25"/>
+  <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4057,6 +4057,114 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>104165878</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5207</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100155</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mindre timmerman</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Acanthocinus griseus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Fabricius, 1792)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Finsjöbrännan, Sm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>575416</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6336378</v>
+      </c>
+      <c r="S26" t="n">
+        <v>25</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Mönsterås</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Fliseryd</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2022-06-10</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2022-06-10</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Olof Persson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Olof Persson, Jesper Hansson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
